--- a/artfynd/A 73921-2021.xlsx
+++ b/artfynd/A 73921-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY37"/>
+  <dimension ref="A1:AY56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>74387725</v>
+        <v>74387724</v>
       </c>
       <c r="B4" t="n">
         <v>77506</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>376996.7937296238</v>
+        <v>377000.7918530595</v>
       </c>
       <c r="R4" t="n">
-        <v>6700002.117591534</v>
+        <v>6700265.926565454</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>74387724</v>
+        <v>74387739</v>
       </c>
       <c r="B5" t="n">
         <v>77506</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>377000.7918530595</v>
+        <v>376872.8419193771</v>
       </c>
       <c r="R5" t="n">
-        <v>6700265.926565454</v>
+        <v>6700376.039685452</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>74387739</v>
+        <v>74387736</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>77258</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>376872.8419193771</v>
+        <v>376889.9729257529</v>
       </c>
       <c r="R6" t="n">
-        <v>6700376.039685452</v>
+        <v>6700268.204837496</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>74387758</v>
+        <v>74387738</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>376849.9079317059</v>
+        <v>376873.8805943133</v>
       </c>
       <c r="R7" t="n">
-        <v>6700079.764070438</v>
+        <v>6700260.843082374</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>74387736</v>
+        <v>74387729</v>
       </c>
       <c r="B8" t="n">
-        <v>77258</v>
+        <v>77506</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>376889.9729257529</v>
+        <v>376970.887149193</v>
       </c>
       <c r="R8" t="n">
-        <v>6700268.204837496</v>
+        <v>6700260.021504997</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>74387721</v>
+        <v>74387747</v>
       </c>
       <c r="B9" t="n">
         <v>77506</v>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>377025.0852994107</v>
+        <v>376867.0591878957</v>
       </c>
       <c r="R9" t="n">
-        <v>6699945.796444287</v>
+        <v>6700409.844704853</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>74387738</v>
+        <v>74387731</v>
       </c>
       <c r="B10" t="n">
         <v>77506</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>376873.8805943133</v>
+        <v>376967.8946852534</v>
       </c>
       <c r="R10" t="n">
-        <v>6700260.843082374</v>
+        <v>6700273.962341819</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>74387719</v>
+        <v>74387730</v>
       </c>
       <c r="B11" t="n">
         <v>77506</v>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>377043.0654386982</v>
+        <v>376969.1101584906</v>
       </c>
       <c r="R11" t="n">
-        <v>6699935.794955891</v>
+        <v>6700266.012934987</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>74387729</v>
+        <v>74387743</v>
       </c>
       <c r="B12" t="n">
         <v>77506</v>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>376970.887149193</v>
+        <v>376870.2103046329</v>
       </c>
       <c r="R12" t="n">
-        <v>6700260.021504997</v>
+        <v>6700386.013980007</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>74387747</v>
+        <v>74387759</v>
       </c>
       <c r="B13" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,21 +1928,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>376867.0591878957</v>
+        <v>376838.8620604862</v>
       </c>
       <c r="R13" t="n">
-        <v>6700409.844704853</v>
+        <v>6700191.846452983</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>74387731</v>
+        <v>74387735</v>
       </c>
       <c r="B14" t="n">
         <v>77506</v>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>376967.8946852534</v>
+        <v>376899.2007959604</v>
       </c>
       <c r="R14" t="n">
-        <v>6700273.962341819</v>
+        <v>6700292.110244696</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>74387754</v>
+        <v>74387726</v>
       </c>
       <c r="B15" t="n">
         <v>77506</v>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>376856.2017830843</v>
+        <v>376979.8799874667</v>
       </c>
       <c r="R15" t="n">
-        <v>6699929.778228731</v>
+        <v>6700277.015484395</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>74387730</v>
+        <v>74387752</v>
       </c>
       <c r="B16" t="n">
         <v>77506</v>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>376969.1101584906</v>
+        <v>376863.8981990077</v>
       </c>
       <c r="R16" t="n">
-        <v>6700266.012934987</v>
+        <v>6700243.882853701</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>74387743</v>
+        <v>74387757</v>
       </c>
       <c r="B17" t="n">
         <v>77506</v>
@@ -2400,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>376870.2103046329</v>
+        <v>376851.2419536079</v>
       </c>
       <c r="R17" t="n">
-        <v>6700386.013980007</v>
+        <v>6700221.082168487</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>74387720</v>
+        <v>74387728</v>
       </c>
       <c r="B18" t="n">
         <v>77506</v>
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>377037.1978320775</v>
+        <v>376971.0292153726</v>
       </c>
       <c r="R18" t="n">
-        <v>6699937.97113596</v>
+        <v>6700278.798573329</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2584,10 +2584,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>74387759</v>
+        <v>74387760</v>
       </c>
       <c r="B19" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2600,21 +2600,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>376838.8620604862</v>
+        <v>376837.7977669895</v>
       </c>
       <c r="R19" t="n">
-        <v>6700191.846452983</v>
+        <v>6700204.239387355</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>74387735</v>
+        <v>74387740</v>
       </c>
       <c r="B20" t="n">
         <v>77506</v>
@@ -2736,10 +2736,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>376899.2007959604</v>
+        <v>376872.8754500371</v>
       </c>
       <c r="R20" t="n">
-        <v>6700292.110244696</v>
+        <v>6700377.027040293</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2808,10 +2808,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>74387749</v>
+        <v>74387744</v>
       </c>
       <c r="B21" t="n">
-        <v>77506</v>
+        <v>78098</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2824,21 +2824,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2848,10 +2848,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>376864.8522645697</v>
+        <v>376869.1209517682</v>
       </c>
       <c r="R21" t="n">
-        <v>6699951.233937764</v>
+        <v>6700412.245894314</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2920,10 +2920,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>74387726</v>
+        <v>112323406</v>
       </c>
       <c r="B22" t="n">
-        <v>77506</v>
+        <v>77636</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2956,14 +2956,14 @@
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Jonsmyrsudden, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>376979.8799874667</v>
+        <v>376867</v>
       </c>
       <c r="R22" t="n">
-        <v>6700277.015484395</v>
+        <v>6700216</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2990,22 +2990,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3020,22 +3010,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>74387752</v>
+        <v>112323405</v>
       </c>
       <c r="B23" t="n">
-        <v>77506</v>
+        <v>77636</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3068,14 +3058,14 @@
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Jonsmyrsudden, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>376863.8981990077</v>
+        <v>376903</v>
       </c>
       <c r="R23" t="n">
-        <v>6700243.882853701</v>
+        <v>6700268</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3102,22 +3092,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3132,22 +3112,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>74387757</v>
+        <v>112323403</v>
       </c>
       <c r="B24" t="n">
-        <v>77506</v>
+        <v>77636</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3180,14 +3160,14 @@
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Jonsmyrsudden, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>376851.2419536079</v>
+        <v>376976</v>
       </c>
       <c r="R24" t="n">
-        <v>6700221.082168487</v>
+        <v>6700256</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3214,22 +3194,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3244,22 +3214,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>74387728</v>
+        <v>112323409</v>
       </c>
       <c r="B25" t="n">
-        <v>77506</v>
+        <v>90823</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3272,34 +3242,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>5966</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Jonsmyrsudden, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>376971.0292153726</v>
+        <v>376877</v>
       </c>
       <c r="R25" t="n">
-        <v>6700278.798573329</v>
+        <v>6700280</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3326,22 +3296,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3356,22 +3316,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>74387742</v>
+        <v>112323404</v>
       </c>
       <c r="B26" t="n">
-        <v>77506</v>
+        <v>78228</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3384,34 +3344,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Jonsmyrsudden, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>376869.9907624553</v>
+        <v>376956</v>
       </c>
       <c r="R26" t="n">
-        <v>6700058.81623072</v>
+        <v>6700282</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3438,22 +3398,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3468,22 +3418,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>74387760</v>
+        <v>112322582</v>
       </c>
       <c r="B27" t="n">
-        <v>77506</v>
+        <v>77636</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3516,14 +3466,14 @@
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Jonsmyrsudden, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>376837.7977669895</v>
+        <v>376995</v>
       </c>
       <c r="R27" t="n">
-        <v>6700204.239387355</v>
+        <v>6700394</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3550,22 +3500,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3580,22 +3520,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>74387740</v>
+        <v>112323408</v>
       </c>
       <c r="B28" t="n">
-        <v>77506</v>
+        <v>90823</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3608,34 +3548,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>5966</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Jonsmyrsudden, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>376872.8754500371</v>
+        <v>376863</v>
       </c>
       <c r="R28" t="n">
-        <v>6700377.027040293</v>
+        <v>6700246</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3662,22 +3602,12 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3692,19 +3622,19 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>74387734</v>
+        <v>74387725</v>
       </c>
       <c r="B29" t="n">
         <v>77506</v>
@@ -3744,10 +3674,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>376901.8853666277</v>
+        <v>376996.7937296238</v>
       </c>
       <c r="R29" t="n">
-        <v>6699846.171224297</v>
+        <v>6700002.117591534</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3816,7 +3746,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>74387745</v>
+        <v>74387758</v>
       </c>
       <c r="B30" t="n">
         <v>77506</v>
@@ -3856,10 +3786,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>376869.0183758087</v>
+        <v>376849.9079317059</v>
       </c>
       <c r="R30" t="n">
-        <v>6700030.180326126</v>
+        <v>6700079.764070438</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3928,7 +3858,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>74387746</v>
+        <v>74387721</v>
       </c>
       <c r="B31" t="n">
         <v>77506</v>
@@ -3968,10 +3898,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>376867.8113538623</v>
+        <v>377025.0852994107</v>
       </c>
       <c r="R31" t="n">
-        <v>6700023.795488692</v>
+        <v>6699945.796444287</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4040,10 +3970,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>74387744</v>
+        <v>74387719</v>
       </c>
       <c r="B32" t="n">
-        <v>78098</v>
+        <v>77506</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4056,21 +3986,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4080,10 +4010,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>376869.1209517682</v>
+        <v>377043.0654386982</v>
       </c>
       <c r="R32" t="n">
-        <v>6700412.245894314</v>
+        <v>6699935.794955891</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4152,7 +4082,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>74387741</v>
+        <v>74387754</v>
       </c>
       <c r="B33" t="n">
         <v>77506</v>
@@ -4192,10 +4122,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>376871.1388198495</v>
+        <v>376856.2017830843</v>
       </c>
       <c r="R33" t="n">
-        <v>6699903.072625135</v>
+        <v>6699929.778228731</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4264,7 +4194,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>74387751</v>
+        <v>74387720</v>
       </c>
       <c r="B34" t="n">
         <v>77506</v>
@@ -4304,10 +4234,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>376864.1398596731</v>
+        <v>377037.1978320775</v>
       </c>
       <c r="R34" t="n">
-        <v>6699973.996064176</v>
+        <v>6699937.97113596</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4376,7 +4306,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>74387732</v>
+        <v>74387749</v>
       </c>
       <c r="B35" t="n">
         <v>77506</v>
@@ -4416,10 +4346,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>376913.9812352865</v>
+        <v>376864.8522645697</v>
       </c>
       <c r="R35" t="n">
-        <v>6699837.851543591</v>
+        <v>6699951.233937764</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4488,7 +4418,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>74387737</v>
+        <v>74387742</v>
       </c>
       <c r="B36" t="n">
         <v>77506</v>
@@ -4528,10 +4458,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>376874.0559144435</v>
+        <v>376869.9907624553</v>
       </c>
       <c r="R36" t="n">
-        <v>6700018.146202448</v>
+        <v>6700058.81623072</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4600,7 +4530,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>74387753</v>
+        <v>74387734</v>
       </c>
       <c r="B37" t="n">
         <v>77506</v>
@@ -4640,10 +4570,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>376858.7918946482</v>
+        <v>376901.8853666277</v>
       </c>
       <c r="R37" t="n">
-        <v>6699933.150422234</v>
+        <v>6699846.171224297</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4709,6 +4639,2014 @@
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>74387745</v>
+      </c>
+      <c r="B38" t="n">
+        <v>77506</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Jonsmyrsudden, Vrm</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>376869.0183758087</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6700030.180326126</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Per Gustafsson</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Per Gustafsson</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>74387746</v>
+      </c>
+      <c r="B39" t="n">
+        <v>77506</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Jonsmyrsudden, Vrm</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>376867.8113538623</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6700023.795488692</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Per Gustafsson</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Per Gustafsson</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>74387741</v>
+      </c>
+      <c r="B40" t="n">
+        <v>77506</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Jonsmyrsudden, Vrm</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>376871.1388198495</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6699903.072625135</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Per Gustafsson</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Per Gustafsson</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>74387751</v>
+      </c>
+      <c r="B41" t="n">
+        <v>77506</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Jonsmyrsudden, Vrm</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>376864.1398596731</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6699973.996064176</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Per Gustafsson</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Per Gustafsson</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>74387732</v>
+      </c>
+      <c r="B42" t="n">
+        <v>77506</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Jonsmyrsudden, Vrm</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>376913.9812352865</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6699837.851543591</v>
+      </c>
+      <c r="S42" t="n">
+        <v>10</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Per Gustafsson</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Per Gustafsson</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>74387737</v>
+      </c>
+      <c r="B43" t="n">
+        <v>77506</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Jonsmyrsudden, Vrm</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>376874.0559144435</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6700018.146202448</v>
+      </c>
+      <c r="S43" t="n">
+        <v>10</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Per Gustafsson</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Per Gustafsson</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>74387753</v>
+      </c>
+      <c r="B44" t="n">
+        <v>77506</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Jonsmyrsudden, Vrm</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>376858.7918946482</v>
+      </c>
+      <c r="R44" t="n">
+        <v>6699933.150422234</v>
+      </c>
+      <c r="S44" t="n">
+        <v>10</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Per Gustafsson</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Per Gustafsson</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>112323400</v>
+      </c>
+      <c r="B45" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>376916</v>
+      </c>
+      <c r="R45" t="n">
+        <v>6699968</v>
+      </c>
+      <c r="S45" t="n">
+        <v>10</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>112322604</v>
+      </c>
+      <c r="B46" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>377037</v>
+      </c>
+      <c r="R46" t="n">
+        <v>6699915</v>
+      </c>
+      <c r="S46" t="n">
+        <v>10</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>112323399</v>
+      </c>
+      <c r="B47" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>377047</v>
+      </c>
+      <c r="R47" t="n">
+        <v>6699906</v>
+      </c>
+      <c r="S47" t="n">
+        <v>10</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>112323398</v>
+      </c>
+      <c r="B48" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>377056</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6699887</v>
+      </c>
+      <c r="S48" t="n">
+        <v>10</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>112323401</v>
+      </c>
+      <c r="B49" t="n">
+        <v>78228</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>376945</v>
+      </c>
+      <c r="R49" t="n">
+        <v>6700094</v>
+      </c>
+      <c r="S49" t="n">
+        <v>10</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>112323395</v>
+      </c>
+      <c r="B50" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>376769</v>
+      </c>
+      <c r="R50" t="n">
+        <v>6699865</v>
+      </c>
+      <c r="S50" t="n">
+        <v>10</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>112322639</v>
+      </c>
+      <c r="B51" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>376970</v>
+      </c>
+      <c r="R51" t="n">
+        <v>6699950</v>
+      </c>
+      <c r="S51" t="n">
+        <v>10</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>112322577</v>
+      </c>
+      <c r="B52" t="n">
+        <v>77389</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>228912</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Mörk kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Carbonicola myrmecina</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>376932</v>
+      </c>
+      <c r="R52" t="n">
+        <v>6700074</v>
+      </c>
+      <c r="S52" t="n">
+        <v>10</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>112322635</v>
+      </c>
+      <c r="B53" t="n">
+        <v>78228</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>376947</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6699898</v>
+      </c>
+      <c r="S53" t="n">
+        <v>10</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>112323396</v>
+      </c>
+      <c r="B54" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>376970</v>
+      </c>
+      <c r="R54" t="n">
+        <v>6699876</v>
+      </c>
+      <c r="S54" t="n">
+        <v>10</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>112322603</v>
+      </c>
+      <c r="B55" t="n">
+        <v>78228</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>376933</v>
+      </c>
+      <c r="R55" t="n">
+        <v>6700074</v>
+      </c>
+      <c r="S55" t="n">
+        <v>10</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>112323397</v>
+      </c>
+      <c r="B56" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>377010</v>
+      </c>
+      <c r="R56" t="n">
+        <v>6699884</v>
+      </c>
+      <c r="S56" t="n">
+        <v>10</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 73921-2021.xlsx
+++ b/artfynd/A 73921-2021.xlsx
@@ -2920,10 +2920,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112323406</v>
+        <v>112323405</v>
       </c>
       <c r="B22" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2960,10 +2960,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>376867</v>
+        <v>376903</v>
       </c>
       <c r="R22" t="n">
-        <v>6700216</v>
+        <v>6700268</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112323405</v>
+        <v>112323404</v>
       </c>
       <c r="B23" t="n">
-        <v>77636</v>
+        <v>78242</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3038,21 +3038,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3062,10 +3062,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>376903</v>
+        <v>376956</v>
       </c>
       <c r="R23" t="n">
-        <v>6700268</v>
+        <v>6700282</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3124,10 +3124,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112323403</v>
+        <v>112323406</v>
       </c>
       <c r="B24" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3164,10 +3164,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>376976</v>
+        <v>376867</v>
       </c>
       <c r="R24" t="n">
-        <v>6700256</v>
+        <v>6700216</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3229,7 +3229,7 @@
         <v>112323409</v>
       </c>
       <c r="B25" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3328,10 +3328,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112323404</v>
+        <v>112322582</v>
       </c>
       <c r="B26" t="n">
-        <v>78228</v>
+        <v>77650</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3344,34 +3344,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>376956</v>
+        <v>376995</v>
       </c>
       <c r="R26" t="n">
-        <v>6700282</v>
+        <v>6700394</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3418,22 +3418,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112322582</v>
+        <v>112323408</v>
       </c>
       <c r="B27" t="n">
-        <v>77636</v>
+        <v>90837</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3446,34 +3446,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>5966</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>376995</v>
+        <v>376863</v>
       </c>
       <c r="R27" t="n">
-        <v>6700394</v>
+        <v>6700246</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3520,22 +3520,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112323408</v>
+        <v>112323403</v>
       </c>
       <c r="B28" t="n">
-        <v>90823</v>
+        <v>77650</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3548,21 +3548,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5966</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3572,10 +3572,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>376863</v>
+        <v>376976</v>
       </c>
       <c r="R28" t="n">
-        <v>6700246</v>
+        <v>6700256</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -5426,10 +5426,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112323400</v>
+        <v>112323397</v>
       </c>
       <c r="B45" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5466,10 +5466,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>376916</v>
+        <v>377010</v>
       </c>
       <c r="R45" t="n">
-        <v>6699968</v>
+        <v>6699884</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5528,10 +5528,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112322604</v>
+        <v>112323396</v>
       </c>
       <c r="B46" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5564,14 +5564,14 @@
       <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>377037</v>
+        <v>376970</v>
       </c>
       <c r="R46" t="n">
-        <v>6699915</v>
+        <v>6699876</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5618,22 +5618,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112323399</v>
+        <v>112322639</v>
       </c>
       <c r="B47" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5666,14 +5666,14 @@
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>377047</v>
+        <v>376970</v>
       </c>
       <c r="R47" t="n">
-        <v>6699906</v>
+        <v>6699950</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5720,22 +5720,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112323398</v>
+        <v>112323395</v>
       </c>
       <c r="B48" t="n">
-        <v>77636</v>
+        <v>90814</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5744,25 +5744,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5772,10 +5772,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>377056</v>
+        <v>376769</v>
       </c>
       <c r="R48" t="n">
-        <v>6699887</v>
+        <v>6699865</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5834,10 +5834,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112323401</v>
+        <v>112322635</v>
       </c>
       <c r="B49" t="n">
-        <v>78228</v>
+        <v>78242</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5870,14 +5870,14 @@
       <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>376945</v>
+        <v>376947</v>
       </c>
       <c r="R49" t="n">
-        <v>6700094</v>
+        <v>6699898</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5924,22 +5924,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112323395</v>
+        <v>112322604</v>
       </c>
       <c r="B50" t="n">
-        <v>90800</v>
+        <v>77650</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5948,38 +5948,38 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>376769</v>
+        <v>377037</v>
       </c>
       <c r="R50" t="n">
-        <v>6699865</v>
+        <v>6699915</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6026,22 +6026,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112322639</v>
+        <v>112323401</v>
       </c>
       <c r="B51" t="n">
-        <v>77636</v>
+        <v>78242</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6054,34 +6054,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>376970</v>
+        <v>376945</v>
       </c>
       <c r="R51" t="n">
-        <v>6699950</v>
+        <v>6700094</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6128,22 +6128,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112322577</v>
+        <v>112323400</v>
       </c>
       <c r="B52" t="n">
-        <v>77389</v>
+        <v>77650</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6156,34 +6156,34 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>376932</v>
+        <v>376916</v>
       </c>
       <c r="R52" t="n">
-        <v>6700074</v>
+        <v>6699968</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6230,22 +6230,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112322635</v>
+        <v>112323399</v>
       </c>
       <c r="B53" t="n">
-        <v>78228</v>
+        <v>77650</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6258,34 +6258,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>376947</v>
+        <v>377047</v>
       </c>
       <c r="R53" t="n">
-        <v>6699898</v>
+        <v>6699906</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6332,22 +6332,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112323396</v>
+        <v>112323398</v>
       </c>
       <c r="B54" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6384,10 +6384,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>376970</v>
+        <v>377056</v>
       </c>
       <c r="R54" t="n">
-        <v>6699876</v>
+        <v>6699887</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6449,7 +6449,7 @@
         <v>112322603</v>
       </c>
       <c r="B55" t="n">
-        <v>78228</v>
+        <v>78242</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6548,10 +6548,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112323397</v>
+        <v>112322577</v>
       </c>
       <c r="B56" t="n">
-        <v>77636</v>
+        <v>77403</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6564,34 +6564,34 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>377010</v>
+        <v>376932</v>
       </c>
       <c r="R56" t="n">
-        <v>6699884</v>
+        <v>6700074</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6638,12 +6638,12 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>

--- a/artfynd/A 73921-2021.xlsx
+++ b/artfynd/A 73921-2021.xlsx
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>74387724</v>
+        <v>74387725</v>
       </c>
       <c r="B4" t="n">
         <v>77506</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>377000.7918530595</v>
+        <v>376996.7937296238</v>
       </c>
       <c r="R4" t="n">
-        <v>6700265.926565454</v>
+        <v>6700002.117591534</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>74387739</v>
+        <v>74387724</v>
       </c>
       <c r="B5" t="n">
         <v>77506</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>376872.8419193771</v>
+        <v>377000.7918530595</v>
       </c>
       <c r="R5" t="n">
-        <v>6700376.039685452</v>
+        <v>6700265.926565454</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>74387736</v>
+        <v>74387739</v>
       </c>
       <c r="B6" t="n">
-        <v>77258</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>376889.9729257529</v>
+        <v>376872.8419193771</v>
       </c>
       <c r="R6" t="n">
-        <v>6700268.204837496</v>
+        <v>6700376.039685452</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>74387738</v>
+        <v>74387758</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>376873.8805943133</v>
+        <v>376849.9079317059</v>
       </c>
       <c r="R7" t="n">
-        <v>6700260.843082374</v>
+        <v>6700079.764070438</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>74387729</v>
+        <v>74387736</v>
       </c>
       <c r="B8" t="n">
-        <v>77506</v>
+        <v>77258</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>376970.887149193</v>
+        <v>376889.9729257529</v>
       </c>
       <c r="R8" t="n">
-        <v>6700260.021504997</v>
+        <v>6700268.204837496</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>74387747</v>
+        <v>74387721</v>
       </c>
       <c r="B9" t="n">
         <v>77506</v>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>376867.0591878957</v>
+        <v>377025.0852994107</v>
       </c>
       <c r="R9" t="n">
-        <v>6700409.844704853</v>
+        <v>6699945.796444287</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>74387731</v>
+        <v>74387738</v>
       </c>
       <c r="B10" t="n">
         <v>77506</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>376967.8946852534</v>
+        <v>376873.8805943133</v>
       </c>
       <c r="R10" t="n">
-        <v>6700273.962341819</v>
+        <v>6700260.843082374</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>74387730</v>
+        <v>74387719</v>
       </c>
       <c r="B11" t="n">
         <v>77506</v>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>376969.1101584906</v>
+        <v>377043.0654386982</v>
       </c>
       <c r="R11" t="n">
-        <v>6700266.012934987</v>
+        <v>6699935.794955891</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>74387743</v>
+        <v>74387729</v>
       </c>
       <c r="B12" t="n">
         <v>77506</v>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>376870.2103046329</v>
+        <v>376970.887149193</v>
       </c>
       <c r="R12" t="n">
-        <v>6700386.013980007</v>
+        <v>6700260.021504997</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>74387759</v>
+        <v>74387747</v>
       </c>
       <c r="B13" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,21 +1928,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>376838.8620604862</v>
+        <v>376867.0591878957</v>
       </c>
       <c r="R13" t="n">
-        <v>6700191.846452983</v>
+        <v>6700409.844704853</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>74387735</v>
+        <v>74387731</v>
       </c>
       <c r="B14" t="n">
         <v>77506</v>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>376899.2007959604</v>
+        <v>376967.8946852534</v>
       </c>
       <c r="R14" t="n">
-        <v>6700292.110244696</v>
+        <v>6700273.962341819</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>74387726</v>
+        <v>74387754</v>
       </c>
       <c r="B15" t="n">
         <v>77506</v>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>376979.8799874667</v>
+        <v>376856.2017830843</v>
       </c>
       <c r="R15" t="n">
-        <v>6700277.015484395</v>
+        <v>6699929.778228731</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>74387752</v>
+        <v>74387730</v>
       </c>
       <c r="B16" t="n">
         <v>77506</v>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>376863.8981990077</v>
+        <v>376969.1101584906</v>
       </c>
       <c r="R16" t="n">
-        <v>6700243.882853701</v>
+        <v>6700266.012934987</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>74387757</v>
+        <v>74387743</v>
       </c>
       <c r="B17" t="n">
         <v>77506</v>
@@ -2400,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>376851.2419536079</v>
+        <v>376870.2103046329</v>
       </c>
       <c r="R17" t="n">
-        <v>6700221.082168487</v>
+        <v>6700386.013980007</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>74387728</v>
+        <v>74387720</v>
       </c>
       <c r="B18" t="n">
         <v>77506</v>
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>376971.0292153726</v>
+        <v>377037.1978320775</v>
       </c>
       <c r="R18" t="n">
-        <v>6700278.798573329</v>
+        <v>6699937.97113596</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2584,10 +2584,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>74387760</v>
+        <v>74387759</v>
       </c>
       <c r="B19" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2600,21 +2600,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>376837.7977669895</v>
+        <v>376838.8620604862</v>
       </c>
       <c r="R19" t="n">
-        <v>6700204.239387355</v>
+        <v>6700191.846452983</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>74387740</v>
+        <v>74387735</v>
       </c>
       <c r="B20" t="n">
         <v>77506</v>
@@ -2736,10 +2736,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>376872.8754500371</v>
+        <v>376899.2007959604</v>
       </c>
       <c r="R20" t="n">
-        <v>6700377.027040293</v>
+        <v>6700292.110244696</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2808,10 +2808,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>74387744</v>
+        <v>74387749</v>
       </c>
       <c r="B21" t="n">
-        <v>78098</v>
+        <v>77506</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2824,21 +2824,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2848,10 +2848,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>376869.1209517682</v>
+        <v>376864.8522645697</v>
       </c>
       <c r="R21" t="n">
-        <v>6700412.245894314</v>
+        <v>6699951.233937764</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2920,10 +2920,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112323405</v>
+        <v>74387726</v>
       </c>
       <c r="B22" t="n">
-        <v>77650</v>
+        <v>77506</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2956,14 +2956,14 @@
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Jonsmyrsudden, Vrm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>376903</v>
+        <v>376979.8799874667</v>
       </c>
       <c r="R22" t="n">
-        <v>6700268</v>
+        <v>6700277.015484395</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2990,12 +2990,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3010,22 +3020,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Per Gustafsson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Per Gustafsson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112323404</v>
+        <v>74387752</v>
       </c>
       <c r="B23" t="n">
-        <v>78242</v>
+        <v>77506</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3038,34 +3048,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Jonsmyrsudden, Vrm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>376956</v>
+        <v>376863.8981990077</v>
       </c>
       <c r="R23" t="n">
-        <v>6700282</v>
+        <v>6700243.882853701</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3092,12 +3102,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3112,22 +3132,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Per Gustafsson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Per Gustafsson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112323406</v>
+        <v>74387757</v>
       </c>
       <c r="B24" t="n">
-        <v>77650</v>
+        <v>77506</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3160,14 +3180,14 @@
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Jonsmyrsudden, Vrm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>376867</v>
+        <v>376851.2419536079</v>
       </c>
       <c r="R24" t="n">
-        <v>6700216</v>
+        <v>6700221.082168487</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3194,12 +3214,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3214,22 +3244,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Per Gustafsson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Per Gustafsson</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112323409</v>
+        <v>74387728</v>
       </c>
       <c r="B25" t="n">
-        <v>90837</v>
+        <v>77506</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3242,34 +3272,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5966</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Jonsmyrsudden, Vrm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>376877</v>
+        <v>376971.0292153726</v>
       </c>
       <c r="R25" t="n">
-        <v>6700280</v>
+        <v>6700278.798573329</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3296,12 +3326,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3316,22 +3356,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Per Gustafsson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Per Gustafsson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112322582</v>
+        <v>74387742</v>
       </c>
       <c r="B26" t="n">
-        <v>77650</v>
+        <v>77506</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3364,14 +3404,14 @@
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyrsudden, Vrm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>376995</v>
+        <v>376869.9907624553</v>
       </c>
       <c r="R26" t="n">
-        <v>6700394</v>
+        <v>6700058.81623072</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3398,12 +3438,22 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3418,22 +3468,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Per Gustafsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Per Gustafsson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112323408</v>
+        <v>74387760</v>
       </c>
       <c r="B27" t="n">
-        <v>90837</v>
+        <v>77506</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3446,34 +3496,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5966</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Jonsmyrsudden, Vrm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>376863</v>
+        <v>376837.7977669895</v>
       </c>
       <c r="R27" t="n">
-        <v>6700246</v>
+        <v>6700204.239387355</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3500,12 +3550,22 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3520,22 +3580,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Per Gustafsson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Per Gustafsson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112323403</v>
+        <v>74387740</v>
       </c>
       <c r="B28" t="n">
-        <v>77650</v>
+        <v>77506</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3568,14 +3628,14 @@
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Jonsmyrsudden, Vrm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>376976</v>
+        <v>376872.8754500371</v>
       </c>
       <c r="R28" t="n">
-        <v>6700256</v>
+        <v>6700377.027040293</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3602,12 +3662,22 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2018-11-15</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3622,19 +3692,19 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Per Gustafsson</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Per Gustafsson</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>74387725</v>
+        <v>74387734</v>
       </c>
       <c r="B29" t="n">
         <v>77506</v>
@@ -3674,10 +3744,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>376996.7937296238</v>
+        <v>376901.8853666277</v>
       </c>
       <c r="R29" t="n">
-        <v>6700002.117591534</v>
+        <v>6699846.171224297</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3746,7 +3816,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>74387758</v>
+        <v>74387745</v>
       </c>
       <c r="B30" t="n">
         <v>77506</v>
@@ -3786,10 +3856,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>376849.9079317059</v>
+        <v>376869.0183758087</v>
       </c>
       <c r="R30" t="n">
-        <v>6700079.764070438</v>
+        <v>6700030.180326126</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3858,7 +3928,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>74387721</v>
+        <v>74387746</v>
       </c>
       <c r="B31" t="n">
         <v>77506</v>
@@ -3898,10 +3968,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>377025.0852994107</v>
+        <v>376867.8113538623</v>
       </c>
       <c r="R31" t="n">
-        <v>6699945.796444287</v>
+        <v>6700023.795488692</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3970,10 +4040,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>74387719</v>
+        <v>74387744</v>
       </c>
       <c r="B32" t="n">
-        <v>77506</v>
+        <v>78098</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3986,21 +4056,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4010,10 +4080,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>377043.0654386982</v>
+        <v>376869.1209517682</v>
       </c>
       <c r="R32" t="n">
-        <v>6699935.794955891</v>
+        <v>6700412.245894314</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4082,7 +4152,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>74387754</v>
+        <v>74387741</v>
       </c>
       <c r="B33" t="n">
         <v>77506</v>
@@ -4122,10 +4192,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>376856.2017830843</v>
+        <v>376871.1388198495</v>
       </c>
       <c r="R33" t="n">
-        <v>6699929.778228731</v>
+        <v>6699903.072625135</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4194,7 +4264,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>74387720</v>
+        <v>74387751</v>
       </c>
       <c r="B34" t="n">
         <v>77506</v>
@@ -4234,10 +4304,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>377037.1978320775</v>
+        <v>376864.1398596731</v>
       </c>
       <c r="R34" t="n">
-        <v>6699937.97113596</v>
+        <v>6699973.996064176</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4306,7 +4376,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>74387749</v>
+        <v>74387732</v>
       </c>
       <c r="B35" t="n">
         <v>77506</v>
@@ -4346,10 +4416,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>376864.8522645697</v>
+        <v>376913.9812352865</v>
       </c>
       <c r="R35" t="n">
-        <v>6699951.233937764</v>
+        <v>6699837.851543591</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4418,7 +4488,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>74387742</v>
+        <v>74387737</v>
       </c>
       <c r="B36" t="n">
         <v>77506</v>
@@ -4458,10 +4528,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>376869.9907624553</v>
+        <v>376874.0559144435</v>
       </c>
       <c r="R36" t="n">
-        <v>6700058.81623072</v>
+        <v>6700018.146202448</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4530,7 +4600,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>74387734</v>
+        <v>74387753</v>
       </c>
       <c r="B37" t="n">
         <v>77506</v>
@@ -4570,10 +4640,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>376901.8853666277</v>
+        <v>376858.7918946482</v>
       </c>
       <c r="R37" t="n">
-        <v>6699846.171224297</v>
+        <v>6699933.150422234</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4642,10 +4712,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>74387745</v>
+        <v>112322604</v>
       </c>
       <c r="B38" t="n">
-        <v>77506</v>
+        <v>77650</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4678,14 +4748,14 @@
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Jonsmyrsudden, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>376869.0183758087</v>
+        <v>377037</v>
       </c>
       <c r="R38" t="n">
-        <v>6700030.180326126</v>
+        <v>6699915</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4712,22 +4782,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4742,22 +4802,22 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>74387746</v>
+        <v>112323406</v>
       </c>
       <c r="B39" t="n">
-        <v>77506</v>
+        <v>77650</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4790,14 +4850,14 @@
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Jonsmyrsudden, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>376867.8113538623</v>
+        <v>376867</v>
       </c>
       <c r="R39" t="n">
-        <v>6700023.795488692</v>
+        <v>6700216</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4824,22 +4884,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4854,22 +4904,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>74387741</v>
+        <v>112323408</v>
       </c>
       <c r="B40" t="n">
-        <v>77506</v>
+        <v>90837</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4882,34 +4932,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>5966</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Jonsmyrsudden, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>376871.1388198495</v>
+        <v>376863</v>
       </c>
       <c r="R40" t="n">
-        <v>6699903.072625135</v>
+        <v>6700246</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4936,22 +4986,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4966,22 +5006,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>74387751</v>
+        <v>112323397</v>
       </c>
       <c r="B41" t="n">
-        <v>77506</v>
+        <v>77650</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5014,14 +5054,14 @@
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Jonsmyrsudden, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>376864.1398596731</v>
+        <v>377010</v>
       </c>
       <c r="R41" t="n">
-        <v>6699973.996064176</v>
+        <v>6699884</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5048,22 +5088,12 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5078,22 +5108,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>74387732</v>
+        <v>112323404</v>
       </c>
       <c r="B42" t="n">
-        <v>77506</v>
+        <v>78242</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5106,34 +5136,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Jonsmyrsudden, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>376913.9812352865</v>
+        <v>376956</v>
       </c>
       <c r="R42" t="n">
-        <v>6699837.851543591</v>
+        <v>6700282</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5160,22 +5190,12 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5190,22 +5210,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>74387737</v>
+        <v>112323396</v>
       </c>
       <c r="B43" t="n">
-        <v>77506</v>
+        <v>77650</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5238,14 +5258,14 @@
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Jonsmyrsudden, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>376874.0559144435</v>
+        <v>376970</v>
       </c>
       <c r="R43" t="n">
-        <v>6700018.146202448</v>
+        <v>6699876</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5272,22 +5292,12 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5302,22 +5312,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>74387753</v>
+        <v>112323399</v>
       </c>
       <c r="B44" t="n">
-        <v>77506</v>
+        <v>77650</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5350,14 +5360,14 @@
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Jonsmyrsudden, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>376858.7918946482</v>
+        <v>377047</v>
       </c>
       <c r="R44" t="n">
-        <v>6699933.150422234</v>
+        <v>6699906</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5384,22 +5394,12 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5414,22 +5414,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Per Gustafsson</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112323397</v>
+        <v>112322603</v>
       </c>
       <c r="B45" t="n">
-        <v>77650</v>
+        <v>78242</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5442,34 +5442,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>377010</v>
+        <v>376933</v>
       </c>
       <c r="R45" t="n">
-        <v>6699884</v>
+        <v>6700074</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5516,22 +5516,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112323396</v>
+        <v>112322635</v>
       </c>
       <c r="B46" t="n">
-        <v>77650</v>
+        <v>78242</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5544,34 +5544,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>376970</v>
+        <v>376947</v>
       </c>
       <c r="R46" t="n">
-        <v>6699876</v>
+        <v>6699898</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5618,19 +5618,19 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112322639</v>
+        <v>112323403</v>
       </c>
       <c r="B47" t="n">
         <v>77650</v>
@@ -5666,14 +5666,14 @@
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>376970</v>
+        <v>376976</v>
       </c>
       <c r="R47" t="n">
-        <v>6699950</v>
+        <v>6700256</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5720,22 +5720,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112323395</v>
+        <v>112323400</v>
       </c>
       <c r="B48" t="n">
-        <v>90814</v>
+        <v>77650</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5744,25 +5744,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5772,10 +5772,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>376769</v>
+        <v>376916</v>
       </c>
       <c r="R48" t="n">
-        <v>6699865</v>
+        <v>6699968</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5834,10 +5834,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112322635</v>
+        <v>112322639</v>
       </c>
       <c r="B49" t="n">
-        <v>78242</v>
+        <v>77650</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5850,21 +5850,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5874,10 +5874,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>376947</v>
+        <v>376970</v>
       </c>
       <c r="R49" t="n">
-        <v>6699898</v>
+        <v>6699950</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112322604</v>
+        <v>112322582</v>
       </c>
       <c r="B50" t="n">
         <v>77650</v>
@@ -5976,10 +5976,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>377037</v>
+        <v>376995</v>
       </c>
       <c r="R50" t="n">
-        <v>6699915</v>
+        <v>6700394</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6038,10 +6038,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112323401</v>
+        <v>112322577</v>
       </c>
       <c r="B51" t="n">
-        <v>78242</v>
+        <v>77403</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6054,34 +6054,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>376945</v>
+        <v>376932</v>
       </c>
       <c r="R51" t="n">
-        <v>6700094</v>
+        <v>6700074</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6128,19 +6128,19 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112323400</v>
+        <v>112323398</v>
       </c>
       <c r="B52" t="n">
         <v>77650</v>
@@ -6180,10 +6180,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>376916</v>
+        <v>377056</v>
       </c>
       <c r="R52" t="n">
-        <v>6699968</v>
+        <v>6699887</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6242,10 +6242,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112323399</v>
+        <v>112323409</v>
       </c>
       <c r="B53" t="n">
-        <v>77650</v>
+        <v>90837</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6258,21 +6258,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>5966</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6282,10 +6282,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>377047</v>
+        <v>376877</v>
       </c>
       <c r="R53" t="n">
-        <v>6699906</v>
+        <v>6700280</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6344,10 +6344,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112323398</v>
+        <v>112323401</v>
       </c>
       <c r="B54" t="n">
-        <v>77650</v>
+        <v>78242</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6360,21 +6360,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6384,10 +6384,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>377056</v>
+        <v>376945</v>
       </c>
       <c r="R54" t="n">
-        <v>6699887</v>
+        <v>6700094</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6446,10 +6446,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112322603</v>
+        <v>112323395</v>
       </c>
       <c r="B55" t="n">
-        <v>78242</v>
+        <v>90814</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6458,38 +6458,38 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>376933</v>
+        <v>376769</v>
       </c>
       <c r="R55" t="n">
-        <v>6700074</v>
+        <v>6699865</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6536,22 +6536,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112322577</v>
+        <v>112323405</v>
       </c>
       <c r="B56" t="n">
-        <v>77403</v>
+        <v>77650</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6564,34 +6564,34 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>376932</v>
+        <v>376903</v>
       </c>
       <c r="R56" t="n">
-        <v>6700074</v>
+        <v>6700268</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6638,12 +6638,12 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
